--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_48.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_48.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999393885280405</v>
+        <v>0.9365718837261942</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8290030824554167</v>
+        <v>0.7369015191260764</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8218823935995517</v>
+        <v>0.637510499641876</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997837674259136</v>
+        <v>0.9568229977918864</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0002522968701656729</v>
+        <v>0.2640212273195264</v>
       </c>
       <c r="G2" t="n">
-        <v>1.143457174989035</v>
+        <v>1.759340753061038</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6371163502421829</v>
+        <v>1.29660392443214</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001130743697980272</v>
+        <v>0.1457647263730311</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02553382875873923</v>
+        <v>1.324444609020565</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01588385564545564</v>
+        <v>0.5138299595386847</v>
       </c>
       <c r="L2" t="n">
-        <v>1.003879134205405</v>
+        <v>0.9136297991165196</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01613401049384116</v>
+        <v>0.5219222677599016</v>
       </c>
       <c r="N2" t="n">
-        <v>146.5698082152072</v>
+        <v>36.66345154510979</v>
       </c>
       <c r="O2" t="n">
-        <v>287.9049807584236</v>
+        <v>73.62803513333562</v>
       </c>
     </row>
     <row r="3">
@@ -561,242 +561,242 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999429620139676</v>
+        <v>0.9365980872655166</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8289045669648645</v>
+        <v>0.7368841330307052</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8216174124458351</v>
+        <v>0.6374290684770718</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998020822954016</v>
+        <v>0.9571279771997688</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0002374221395934867</v>
+        <v>0.2639121543875449</v>
       </c>
       <c r="G3" t="n">
-        <v>1.144115948527979</v>
+        <v>1.759457013960841</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6380641724645376</v>
+        <v>1.296895198986995</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001034969861219667</v>
+        <v>0.1447351217764657</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02709666214427912</v>
+        <v>1.321417074992154</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01540850867519263</v>
+        <v>0.5137238113885173</v>
       </c>
       <c r="L3" t="n">
-        <v>1.003650431106074</v>
+        <v>0.9136654805317673</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01565117728396916</v>
+        <v>0.5218144478824782</v>
       </c>
       <c r="N3" t="n">
-        <v>146.6913416430585</v>
+        <v>36.66427795948185</v>
       </c>
       <c r="O3" t="n">
-        <v>288.0265141862749</v>
+        <v>73.62886154770767</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_5</t>
+          <t>model_1_48_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999434978927315</v>
+        <v>0.9368105038159593</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8288924105692927</v>
+        <v>0.7366097073962272</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8215950603946405</v>
+        <v>0.636667698184489</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998050534307763</v>
+        <v>0.9598982193053291</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0002351915299321994</v>
+        <v>0.2630279648254781</v>
       </c>
       <c r="G4" t="n">
-        <v>1.144197238401143</v>
+        <v>1.761292099442209</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6381441244556142</v>
+        <v>1.299618576376777</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001019432920890119</v>
+        <v>0.1353828378787159</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02664879015311482</v>
+        <v>1.293284831172799</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01533595546199191</v>
+        <v>0.5128625203945771</v>
       </c>
       <c r="L4" t="n">
-        <v>1.003616134865183</v>
+        <v>0.9139547286004552</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01557748143018713</v>
+        <v>0.5209395924163587</v>
       </c>
       <c r="N4" t="n">
-        <v>146.7102207095626</v>
+        <v>36.67098984464425</v>
       </c>
       <c r="O4" t="n">
-        <v>288.045393252779</v>
+        <v>73.63557343287006</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_7</t>
+          <t>model_1_48_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999433625792453</v>
+        <v>0.9368784747345679</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8288885032052771</v>
+        <v>0.7358930708716879</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8215972756123822</v>
+        <v>0.6363629842870275</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998040104263823</v>
+        <v>0.9609543475134092</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0002357547759313187</v>
+        <v>0.2627450340621619</v>
       </c>
       <c r="G5" t="n">
-        <v>1.144223366962307</v>
+        <v>1.766084251181611</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6381362007501976</v>
+        <v>1.30070852031967</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001024887097488514</v>
+        <v>0.1318173694257737</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02697770501641105</v>
+        <v>1.282256834798285</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01535430805771848</v>
+        <v>0.5125866112786813</v>
       </c>
       <c r="L5" t="n">
-        <v>1.003624794928299</v>
+        <v>0.9140472847449435</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01559612306095053</v>
+        <v>0.5206593380076954</v>
       </c>
       <c r="N5" t="n">
-        <v>146.7054367563971</v>
+        <v>36.67314233852449</v>
       </c>
       <c r="O5" t="n">
-        <v>288.0406092996135</v>
+        <v>73.63772592675032</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_4</t>
+          <t>model_1_48_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999426720357539</v>
+        <v>0.9369104343102351</v>
       </c>
       <c r="C6" t="n">
-        <v>0.82885831529736</v>
+        <v>0.7357928282902895</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8216522361134417</v>
+        <v>0.6362021091114749</v>
       </c>
       <c r="E6" t="n">
-        <v>0.99980258188571</v>
+        <v>0.9614980206092958</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0002386291816494646</v>
+        <v>0.2626120014752272</v>
       </c>
       <c r="G6" t="n">
-        <v>1.144425233641552</v>
+        <v>1.766754573784997</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6379396102247006</v>
+        <v>1.301283961494543</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001032357356626752</v>
+        <v>0.1299819395439979</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02695272499088437</v>
+        <v>1.276510480603176</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01544762705561811</v>
+        <v>0.5124568288892511</v>
       </c>
       <c r="L6" t="n">
-        <v>1.003668989711748</v>
+        <v>0.9140908041671287</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0156909117397823</v>
+        <v>0.5205275116753664</v>
       </c>
       <c r="N6" t="n">
-        <v>146.6811995042698</v>
+        <v>36.67415523132523</v>
       </c>
       <c r="O6" t="n">
-        <v>288.0163720474862</v>
+        <v>73.63873881955105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_48_6</t>
+          <t>model_1_48_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999440844062919</v>
+        <v>0.9370045167702621</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8288582744469249</v>
+        <v>0.7356567452657545</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8215695584621164</v>
+        <v>0.635617647426708</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998072672652933</v>
+        <v>0.9633866547537943</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002327501515792432</v>
+        <v>0.2622203807236614</v>
       </c>
       <c r="G7" t="n">
-        <v>1.144425506808599</v>
+        <v>1.767664561596666</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6382353433895656</v>
+        <v>1.303374547051918</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001007856129377417</v>
+        <v>0.1236059471125491</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02694703105362969</v>
+        <v>1.256171649824806</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01525615127020059</v>
+        <v>0.5120745851178922</v>
       </c>
       <c r="L7" t="n">
-        <v>1.003578597997318</v>
+        <v>0.9142189164531228</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01549642040215003</v>
+        <v>0.5201392479467122</v>
       </c>
       <c r="N7" t="n">
-        <v>146.7310899811077</v>
+        <v>36.67713996197472</v>
       </c>
       <c r="O7" t="n">
-        <v>288.0662625243241</v>
+        <v>73.64172355020055</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999466020450699</v>
+        <v>0.9370205691376255</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8286650796816228</v>
+        <v>0.7356286608176061</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8213637700848432</v>
+        <v>0.6354908609797532</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998214379393057</v>
+        <v>0.9637785869075638</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0002222704129525694</v>
+        <v>0.2621535623159639</v>
       </c>
       <c r="G8" t="n">
-        <v>1.145717401093754</v>
+        <v>1.767852362430752</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6389714364827763</v>
+        <v>1.303828054821175</v>
       </c>
       <c r="I8" t="n">
-        <v>0.000933753509069842</v>
+        <v>0.1222827917235844</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02741188113819094</v>
+        <v>1.251875449901864</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01490873612861162</v>
+        <v>0.5120093381140268</v>
       </c>
       <c r="L8" t="n">
-        <v>1.003417469115526</v>
+        <v>0.9142407749959156</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01514353381936876</v>
+        <v>0.5200729733677589</v>
       </c>
       <c r="N8" t="n">
-        <v>146.8232316819644</v>
+        <v>36.67764966241996</v>
       </c>
       <c r="O8" t="n">
-        <v>288.1584042251808</v>
+        <v>73.64223325064579</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999483360156196</v>
+        <v>0.9370281721358982</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8286414305098404</v>
+        <v>0.7356151171566583</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8213617912019542</v>
+        <v>0.6354261503148741</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998292027341151</v>
+        <v>0.9639762524354708</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0002150527142481787</v>
+        <v>0.262121914632678</v>
       </c>
       <c r="G9" t="n">
-        <v>1.145875543214358</v>
+        <v>1.767942928953873</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6389785148321279</v>
+        <v>1.304059521117308</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0008931491143161199</v>
+        <v>0.1216154767152409</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02678275365570852</v>
+        <v>1.24970115619929</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01466467572939063</v>
+        <v>0.5119784318041903</v>
       </c>
       <c r="L9" t="n">
-        <v>1.003306495000345</v>
+        <v>0.9142511280148401</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01489562971283093</v>
+        <v>0.5200415803144376</v>
       </c>
       <c r="N9" t="n">
-        <v>146.8892547546785</v>
+        <v>36.67789112084947</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2244272978949</v>
+        <v>73.6424747090753</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999493667866058</v>
+        <v>0.9370354921073341</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8285770093447526</v>
+        <v>0.7356007348855113</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8211629896636702</v>
+        <v>0.6353604758452071</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998335050736732</v>
+        <v>0.964175085049629</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0002107621024997214</v>
+        <v>0.2620914450561559</v>
       </c>
       <c r="G10" t="n">
-        <v>1.146306327841932</v>
+        <v>1.768039103267257</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6396896164073944</v>
+        <v>1.304294434887282</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0008706509159645693</v>
+        <v>0.1209442216462319</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02701420032412972</v>
+        <v>1.247507843813843</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01451764796720603</v>
+        <v>0.5119486742400609</v>
       </c>
       <c r="L10" t="n">
-        <v>1.003240525657226</v>
+        <v>0.9142610956355187</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01474628641036576</v>
+        <v>0.5200113540984197</v>
       </c>
       <c r="N10" t="n">
-        <v>146.9295610737448</v>
+        <v>36.67812361836975</v>
       </c>
       <c r="O10" t="n">
-        <v>288.2647336169612</v>
+        <v>73.64270720659557</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999577684872394</v>
+        <v>0.9370557011884796</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8278767289983201</v>
+        <v>0.7355595476703167</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8203365441137117</v>
+        <v>0.6351574017232222</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999889722096019</v>
+        <v>0.9647787465475329</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0001757897993135986</v>
+        <v>0.2620073242163692</v>
       </c>
       <c r="G11" t="n">
-        <v>1.150989105743021</v>
+        <v>1.768314522364912</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6426457642195296</v>
+        <v>1.305020819246708</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0005766755794303695</v>
+        <v>0.1189062720766956</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02911217163656396</v>
+        <v>1.240803625055328</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01325857455813402</v>
+        <v>0.5118665101531543</v>
       </c>
       <c r="L11" t="n">
-        <v>1.002702816816679</v>
+        <v>0.9142886143843126</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01346738385371252</v>
+        <v>0.5199278960092784</v>
       </c>
       <c r="N11" t="n">
-        <v>147.2924431975579</v>
+        <v>36.67876564117493</v>
       </c>
       <c r="O11" t="n">
-        <v>288.6276157407743</v>
+        <v>73.64334922940076</v>
       </c>
     </row>
   </sheetData>
